--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989162</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
         <v>397.8840054528454</v>
@@ -718,7 +718,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U2" t="n">
         <v>648.751427201877</v>
@@ -913,13 +913,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G5" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G8" t="n">
         <v>397.8840054528454</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1432,7 +1432,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1441,7 +1441,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y11" t="n">
         <v>511.3174326828064</v>
@@ -1551,52 +1551,52 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>57.56516074743381</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D20" t="n">
         <v>410.3391557398498</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,43 +2262,43 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201043</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C26" t="n">
         <v>449.4745782429939</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
         <v>408.192915058951</v>
@@ -2702,7 +2702,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W27" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X27" t="n">
         <v>419.8627394453875</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
         <v>408.192915058951</v>
@@ -2939,7 +2939,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
         <v>408.192915058951</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4070,7 +4070,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643396</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
         <v>894.2358041069906</v>
@@ -4336,19 +4336,19 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2153.765102156982</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O2" t="n">
         <v>5028.734971800483</v>
@@ -4366,22 +4366,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4497,19 +4497,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4561,10 +4561,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4576,25 +4576,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.420289043491</v>
+        <v>2046.117175397607</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473565</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987068</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.58008885974</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4731,22 +4731,22 @@
         <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,16 +4786,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
         <v>894.2358041069906</v>
@@ -4807,55 +4807,55 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083262</v>
+        <v>1408.776586572602</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>2326.369309889185</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4980,10 +4980,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>438.463966970767</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5050,22 +5050,22 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5080,13 +5080,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
         <v>3583.51196363841</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5244,13 +5244,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,31 +5281,31 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5518,31 +5518,31 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L17" t="n">
-        <v>3071.357825473565</v>
+        <v>3392.721067928238</v>
       </c>
       <c r="M17" t="n">
-        <v>3553.537024987068</v>
+        <v>3874.900267441741</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.58008885974</v>
+        <v>4439.943331314413</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.734971800483</v>
+        <v>5350.098214255157</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5688,31 +5688,31 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V19" t="n">
         <v>140.96</v>
@@ -5737,16 +5737,16 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5755,31 +5755,31 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>2153.765102156982</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.58008885974</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800483</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5946,22 +5946,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>669.1334430047632</v>
       </c>
       <c r="K23" t="n">
-        <v>2049.12665539136</v>
+        <v>1408.776586572602</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010449</v>
+        <v>2326.369309889185</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523952</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396624</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337368</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434781</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6159,46 +6159,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6235,22 +6235,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6274,10 +6274,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6335,19 +6335,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W27" t="n">
         <v>3503.082427021609</v>
@@ -6396,34 +6396,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,13 +6445,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
         <v>1303.215227044376</v>
@@ -6475,46 +6475,46 @@
         <v>2049.12665539136</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>4924.096525034862</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,19 +6572,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W30" t="n">
         <v>3503.082427021609</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6633,46 +6633,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6712,19 +6712,19 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>2257.013012360075</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M32" t="n">
-        <v>3788.860546968407</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5877.044763467824</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6809,19 +6809,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W33" t="n">
         <v>3503.082427021609</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6870,46 +6870,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6946,22 +6946,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6970,25 +6970,25 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7049,16 +7049,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7140,10 +7140,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
         <v>140.96</v>
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,52 +7180,52 @@
         <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2683.01470158037</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7368,13 +7368,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7414,28 +7414,28 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800483</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7520,19 +7520,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7605,13 +7605,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7630,46 +7630,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3468.309364968008</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M44" t="n">
-        <v>3950.48856448151</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P44" t="n">
         <v>6474.295852434775</v>
@@ -7684,22 +7684,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E45" t="n">
         <v>1224.779007402434</v>
@@ -7757,28 +7757,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7845,10 +7845,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
         <v>140.96</v>
@@ -7984,10 +7984,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>746.2187031047677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>713.8352387415312</v>
       </c>
       <c r="L5" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>70.0568661910213</v>
       </c>
       <c r="L8" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>721.547474042929</v>
+        <v>822.5705182964548</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8929,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>383.4716344542434</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>409.3070180254626</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,19 +9418,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>459.8234496459304</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>70.05686619102141</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>721.5474740429363</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656714</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>746.2187031047677</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10123,7 +10123,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>721.547474042929</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>839.6117546116188</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>378.1515460156958</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>603.2839282494458</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>746.2187031047677</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10828,16 +10828,16 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M38" t="n">
-        <v>1008.117854979872</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>105.4961355485616</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>214.890922265086</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23928,13 +23928,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>210.4930590692859</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23952,10 +23952,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292970942</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25098,10 +25098,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>107.6476277959926</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>93.01594453502963</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25380,13 +25380,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="38">
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25633,7 +25633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W46" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.4033922273</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866087</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.41921426968</v>
+        <v>5299282.597556978</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.0169098785</v>
+        <v>6511928.765912144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.934267302</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010961</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.809996705</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923138</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879226</v>
+        <v>12575159.60768792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835314</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791402</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747492</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703583</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659674</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>850079.5022245013</v>
+      </c>
+      <c r="C2" t="n">
         <v>850079.5022245015</v>
-      </c>
-      <c r="C2" t="n">
-        <v>850079.5022245013</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="F2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="L2" t="n">
         <v>761428.9894323122</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323124</v>
       </c>
       <c r="M2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323128</v>
       </c>
     </row>
     <row r="3">
@@ -26438,19 +26438,19 @@
         <v>26356.19966309946</v>
       </c>
       <c r="G4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309952</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="L4" t="n">
         <v>26356.19966309946</v>
@@ -26459,13 +26459,13 @@
         <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
     </row>
     <row r="5">
@@ -26530,46 +26530,46 @@
         <v>-1468875.03866173</v>
       </c>
       <c r="C6" t="n">
-        <v>576125.9123927508</v>
+        <v>576125.912392751</v>
       </c>
       <c r="D6" t="n">
         <v>576428.273062684</v>
       </c>
       <c r="E6" t="n">
-        <v>596093.3897692126</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="F6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="G6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="H6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="I6" t="n">
-        <v>596093.3897692133</v>
+        <v>596093.3897692129</v>
       </c>
       <c r="J6" t="n">
-        <v>-24130.61023078692</v>
+        <v>-24130.61023078703</v>
       </c>
       <c r="K6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="L6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="M6" t="n">
         <v>596093.3897692128</v>
       </c>
       <c r="N6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="O6" t="n">
         <v>596093.3897692128</v>
       </c>
       <c r="P6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.3897692133</v>
       </c>
     </row>
   </sheetData>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27562,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27927,7 +27927,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28176,13 +28176,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O10" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>388.0294482079483</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34828,10 +34828,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1063.028252950772</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
         <v>926.861336683417</v>
@@ -34843,7 +34843,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1665.56706971158</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
@@ -34989,7 +34989,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>168.7357375896767</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>1460.949525173692</v>
       </c>
       <c r="L5" t="n">
-        <v>1749.431854979872</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,16 +35080,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
         <v>17.57070160869296</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>817.1711526231821</v>
       </c>
       <c r="L8" t="n">
-        <v>1673.080039788185</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35472,13 +35472,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1648.408810726346</v>
+        <v>1749.431854979872</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35773,22 +35773,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1350.398214681607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
@@ -35797,10 +35797,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>844.9064928403257</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L17" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1253.617450447093</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,34 +36247,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1063.028252950772</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067561</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,13 +36487,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>533.5085282876397</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>1648.408810726353</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36727,10 +36727,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36739,13 +36739,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1665.56706971158</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36967,7 +36967,7 @@
         <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
-        <v>1648.408810726346</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,13 +36979,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1683.922187033249</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37204,13 +37204,13 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>948.9021155840516</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37219,7 +37219,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1064.718786635528</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,13 +37450,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1665.56706971158</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37672,16 +37672,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M38" t="n">
-        <v>1495.167551458158</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>949.8065679701916</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1242.775303202028</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,13 +37924,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498716</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,28 +38143,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1494.705995575322</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>785.6414918334417</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
